--- a/biology/Zoologie/Don_Edwards_San_Francisco_Bay_National_Wildlife_Refuge/Don_Edwards_San_Francisco_Bay_National_Wildlife_Refuge.xlsx
+++ b/biology/Zoologie/Don_Edwards_San_Francisco_Bay_National_Wildlife_Refuge/Don_Edwards_San_Francisco_Bay_National_Wildlife_Refuge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Don Edwards San Francisco Bay National Wildlife Refuge (DESFBNWR) est un National Wildlife Refuge situé dans le sud de la baie de San Francisco en Californie.
 Le siège et le centre visiteur du refuge est situé dans le quartier Baylands de Fremont, à côté du parc régional de Coyote Hills (en).
